--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\Python_Selenium_Framework\PycharmProjects\SeleniumPageObjectModel\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\Selenium_Python_Framework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Browser_Conf" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>URL</t>
   </si>
@@ -72,12 +73,18 @@
   </si>
   <si>
     <t>lkkushan@yahoo.com</t>
+  </si>
+  <si>
+    <t>Headless Status</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -402,7 +409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -481,4 +488,32 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>